--- a/medicine/Médecine vétérinaire/Liste_d'aliments_toxiques_pour_les_chiens/Liste_d'aliments_toxiques_pour_les_chiens.xlsx
+++ b/medicine/Médecine vétérinaire/Liste_d'aliments_toxiques_pour_les_chiens/Liste_d'aliments_toxiques_pour_les_chiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27aliments_toxiques_pour_les_chiens</t>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste d'aliments toxiques pour les chiens augmentée d'une liste de végétaux toxiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27aliments_toxiques_pour_les_chiens</t>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,40 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-abricot[2]
-ail[3]
-alcool[4]
-avocat[4]
-C
-café[3]
-chocolat[4]
-ciboulette[3]
-citron[2]
-D
-Drupes[2]
-H
-houblon[3]
-L
-lait et produits dérivés[2]
-levure[2]
-N
-nectarine[2]
-noix de Macadamia[3]
-M
-maïs[5]
-O
-oignons[4]
-P
-pêche[2]
-poireau[3]
-R
-raisin[4]
-rhubarbe (oxalate de calcium)[6]
-T
-thé[3]
-X
-xylitol (substitut du sucre)[3]</t>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>abricot
+ail
+alcool
+avocat</t>
         </is>
       </c>
     </row>
@@ -556,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27aliments_toxiques_pour_les_chiens</t>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,10 +559,415 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>café
+chocolat
+ciboulette
+citron</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Drupes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>houblon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>lait et produits dérivés
+levure</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nectarine
+noix de Macadamia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>maïs</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>oignons</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>pêche
+poireau</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>raisin
+rhubarbe (oxalate de calcium)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>thé</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Aliments par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>xylitol (substitut du sucre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27aliments_toxiques_pour_les_chiens</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Végétaux toxiques pour les chiens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Des plantes familières sont également toxiques pour les chiens, parmi lesquelles :
 Aloe vera
@@ -592,9 +985,9 @@
 Sarrasin commun
 Ricin commun
 Caladium bicolor
-Dracaena fragrans[7]
-Yucca gigantea[6]
-Cannabis[8]</t>
+Dracaena fragrans
+Yucca gigantea
+Cannabis</t>
         </is>
       </c>
     </row>
